--- a/Data/Sampling_input2.xlsx
+++ b/Data/Sampling_input2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/upload/Git/Newest/Glance_sampling/Glance_sampling/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{ECFE9301-F856-45D4-A61B-31A6E83E9CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23E479B3-D7F6-4F31-B6DD-5C5CE092B9C6}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{ECFE9301-F856-45D4-A61B-31A6E83E9CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37E4FB15-5093-4A7D-8A1F-053E18E5871D}"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="1740" windowWidth="17280" windowHeight="9024" xr2:uid="{49922384-BA17-40C3-A2AE-F9A2620CD2B5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49922384-BA17-40C3-A2AE-F9A2620CD2B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">

--- a/Data/Sampling_input2.xlsx
+++ b/Data/Sampling_input2.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/upload/Git/Newest/Glance_sampling/Glance_sampling/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/upload/Git/Newest/Glance_sampling/update_Henrik/Glance_sampling/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{ECFE9301-F856-45D4-A61B-31A6E83E9CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37E4FB15-5093-4A7D-8A1F-053E18E5871D}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{ECFE9301-F856-45D4-A61B-31A6E83E9CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48455F3C-13F5-4AA1-AC19-EC12968C747F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49922384-BA17-40C3-A2AE-F9A2620CD2B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>sim_order</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>reduce_simulations_by_logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">propto eoff_acc_prob * eoff * abs(acc) * maximpact0 </t>
   </si>
 </sst>
 </file>
@@ -440,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E261EBCA-2599-45D2-83B6-1D4CFFC0FCA3}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5546875" style="1" customWidth="1"/>
@@ -476,7 +473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -581,16 +578,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>1</v>
@@ -604,13 +601,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="b">
         <v>1</v>
@@ -620,42 +617,29 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="9.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
